--- a/Для импорта.xlsx
+++ b/Для импорта.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24527"/>
-  <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CE9E4D5-60BF-446D-8301-AC2297D4A934}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="390" windowWidth="21600" windowHeight="11385" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="manager" sheetId="1" r:id="rId1"/>
@@ -13,7 +12,7 @@
     <sheet name="cle" sheetId="3" r:id="rId3"/>
     <sheet name="zak" sheetId="4" r:id="rId4"/>
     <sheet name="provi" sheetId="5" r:id="rId5"/>
-    <sheet name="Лист2" sheetId="6" state="hidden" r:id="rId6"/>
+    <sheet name="Лист2" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="145">
   <si>
     <t>Андрей</t>
   </si>
@@ -465,7 +464,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -815,11 +814,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection sqref="A1:E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1236,11 +1235,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:G20"/>
+      <selection activeCell="J21" sqref="J21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1740,11 +1739,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E10" sqref="A1:E10"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1933,20 +1932,21 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:E23"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:N23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E23" sqref="A22:E23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="10.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.28515625" customWidth="1"/>
+    <col min="11" max="11" width="15.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>117</v>
       </c>
@@ -1962,8 +1962,26 @@
       <c r="E1" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="I1">
+        <v>1</v>
+      </c>
+      <c r="J1">
+        <v>1</v>
+      </c>
+      <c r="K1" s="4">
+        <v>43912</v>
+      </c>
+      <c r="L1">
+        <v>1</v>
+      </c>
+      <c r="M1">
+        <v>1</v>
+      </c>
+      <c r="N1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1979,8 +1997,29 @@
       <c r="E2">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="I2">
+        <v>2</v>
+      </c>
+      <c r="J2">
+        <v>2</v>
+      </c>
+      <c r="K2" s="4">
+        <v>44454</v>
+      </c>
+      <c r="L2">
+        <v>2</v>
+      </c>
+      <c r="M2">
+        <v>2</v>
+      </c>
+      <c r="N2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1996,8 +2035,29 @@
       <c r="E3">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F3">
+        <v>2</v>
+      </c>
+      <c r="I3">
+        <v>3</v>
+      </c>
+      <c r="J3">
+        <v>3</v>
+      </c>
+      <c r="K3" s="4">
+        <v>44424</v>
+      </c>
+      <c r="L3">
+        <v>3</v>
+      </c>
+      <c r="M3">
+        <v>1</v>
+      </c>
+      <c r="N3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -2013,8 +2073,29 @@
       <c r="E4">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="I4">
+        <v>4</v>
+      </c>
+      <c r="J4">
+        <v>4</v>
+      </c>
+      <c r="K4" s="4">
+        <v>43912</v>
+      </c>
+      <c r="L4">
+        <v>4</v>
+      </c>
+      <c r="M4">
+        <v>2</v>
+      </c>
+      <c r="N4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -2030,8 +2111,29 @@
       <c r="E5">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F5">
+        <v>2</v>
+      </c>
+      <c r="I5">
+        <v>5</v>
+      </c>
+      <c r="J5">
+        <v>5</v>
+      </c>
+      <c r="K5" s="4">
+        <v>43974</v>
+      </c>
+      <c r="L5">
+        <v>5</v>
+      </c>
+      <c r="M5">
+        <v>1</v>
+      </c>
+      <c r="N5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -2047,8 +2149,29 @@
       <c r="E6">
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="I6">
+        <v>6</v>
+      </c>
+      <c r="J6">
+        <v>6</v>
+      </c>
+      <c r="K6" s="4">
+        <v>44458</v>
+      </c>
+      <c r="L6">
+        <v>6</v>
+      </c>
+      <c r="M6">
+        <v>1</v>
+      </c>
+      <c r="N6">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -2064,8 +2187,29 @@
       <c r="E7">
         <v>6</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="I7">
+        <v>7</v>
+      </c>
+      <c r="J7">
+        <v>7</v>
+      </c>
+      <c r="K7" s="4">
+        <v>44440</v>
+      </c>
+      <c r="L7">
+        <v>7</v>
+      </c>
+      <c r="M7">
+        <v>1</v>
+      </c>
+      <c r="N7">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -2081,8 +2225,29 @@
       <c r="E8">
         <v>7</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="I8">
+        <v>8</v>
+      </c>
+      <c r="J8">
+        <v>8</v>
+      </c>
+      <c r="K8" s="4">
+        <v>43822</v>
+      </c>
+      <c r="L8">
+        <v>8</v>
+      </c>
+      <c r="M8">
+        <v>1</v>
+      </c>
+      <c r="N8">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -2098,8 +2263,29 @@
       <c r="E9">
         <v>8</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="I9">
+        <v>9</v>
+      </c>
+      <c r="J9">
+        <v>9</v>
+      </c>
+      <c r="K9" s="4">
+        <v>44369</v>
+      </c>
+      <c r="L9">
+        <v>9</v>
+      </c>
+      <c r="M9">
+        <v>2</v>
+      </c>
+      <c r="N9">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -2115,8 +2301,29 @@
       <c r="E10">
         <v>9</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F10">
+        <v>2</v>
+      </c>
+      <c r="I10">
+        <v>10</v>
+      </c>
+      <c r="J10">
+        <v>10</v>
+      </c>
+      <c r="K10" s="4">
+        <v>44444</v>
+      </c>
+      <c r="L10">
+        <v>10</v>
+      </c>
+      <c r="M10">
+        <v>2</v>
+      </c>
+      <c r="N10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -2132,8 +2339,29 @@
       <c r="E11">
         <v>10</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F11">
+        <v>2</v>
+      </c>
+      <c r="I11">
+        <v>11</v>
+      </c>
+      <c r="J11">
+        <v>11</v>
+      </c>
+      <c r="K11" s="4">
+        <v>43783</v>
+      </c>
+      <c r="L11">
+        <v>10</v>
+      </c>
+      <c r="M11">
+        <v>3</v>
+      </c>
+      <c r="N11">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -2149,8 +2377,29 @@
       <c r="E12">
         <v>11</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F12">
+        <v>3</v>
+      </c>
+      <c r="I12">
+        <v>12</v>
+      </c>
+      <c r="J12">
+        <v>12</v>
+      </c>
+      <c r="K12" s="4">
+        <v>44464</v>
+      </c>
+      <c r="L12">
+        <v>9</v>
+      </c>
+      <c r="M12">
+        <v>3</v>
+      </c>
+      <c r="N12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -2166,8 +2415,29 @@
       <c r="E13">
         <v>12</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F13">
+        <v>3</v>
+      </c>
+      <c r="I13">
+        <v>13</v>
+      </c>
+      <c r="J13">
+        <v>13</v>
+      </c>
+      <c r="K13" s="4">
+        <v>43724</v>
+      </c>
+      <c r="L13">
+        <v>8</v>
+      </c>
+      <c r="M13">
+        <v>1</v>
+      </c>
+      <c r="N13">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -2183,8 +2453,29 @@
       <c r="E14">
         <v>13</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="I14">
+        <v>14</v>
+      </c>
+      <c r="J14">
+        <v>14</v>
+      </c>
+      <c r="K14" s="4">
+        <v>44404</v>
+      </c>
+      <c r="L14">
+        <v>7</v>
+      </c>
+      <c r="M14">
+        <v>2</v>
+      </c>
+      <c r="N14">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
@@ -2200,8 +2491,29 @@
       <c r="E15">
         <v>14</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F15">
+        <v>2</v>
+      </c>
+      <c r="I15">
+        <v>15</v>
+      </c>
+      <c r="J15">
+        <v>15</v>
+      </c>
+      <c r="K15" s="4">
+        <v>44092</v>
+      </c>
+      <c r="L15">
+        <v>6</v>
+      </c>
+      <c r="M15">
+        <v>3</v>
+      </c>
+      <c r="N15">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
@@ -2217,8 +2529,29 @@
       <c r="E16">
         <v>15</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F16">
+        <v>3</v>
+      </c>
+      <c r="I16">
+        <v>16</v>
+      </c>
+      <c r="J16">
+        <v>16</v>
+      </c>
+      <c r="K16" s="4">
+        <v>44468</v>
+      </c>
+      <c r="L16">
+        <v>5</v>
+      </c>
+      <c r="M16">
+        <v>1</v>
+      </c>
+      <c r="N16">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
@@ -2234,8 +2567,29 @@
       <c r="E17">
         <v>16</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="I17">
+        <v>17</v>
+      </c>
+      <c r="J17">
+        <v>17</v>
+      </c>
+      <c r="K17" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="L17">
+        <v>4</v>
+      </c>
+      <c r="M17">
+        <v>1</v>
+      </c>
+      <c r="N17">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
@@ -2251,8 +2605,29 @@
       <c r="E18">
         <v>17</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="I18">
+        <v>18</v>
+      </c>
+      <c r="J18">
+        <v>18</v>
+      </c>
+      <c r="K18" s="4">
+        <v>44480</v>
+      </c>
+      <c r="L18">
+        <v>3</v>
+      </c>
+      <c r="M18">
+        <v>2</v>
+      </c>
+      <c r="N18">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
@@ -2268,8 +2643,29 @@
       <c r="E19">
         <v>18</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F19">
+        <v>2</v>
+      </c>
+      <c r="I19">
+        <v>19</v>
+      </c>
+      <c r="J19">
+        <v>19</v>
+      </c>
+      <c r="K19" s="4">
+        <v>43832</v>
+      </c>
+      <c r="L19">
+        <v>2</v>
+      </c>
+      <c r="M19">
+        <v>2</v>
+      </c>
+      <c r="N19">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
@@ -2285,8 +2681,29 @@
       <c r="E20">
         <v>19</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F20">
+        <v>2</v>
+      </c>
+      <c r="I20">
+        <v>20</v>
+      </c>
+      <c r="J20">
+        <v>20</v>
+      </c>
+      <c r="K20" s="4">
+        <v>44107</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>1</v>
+      </c>
+      <c r="N20">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
@@ -2302,11 +2719,14 @@
       <c r="E21">
         <v>20</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="C22" s="4"/>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="C23" s="4"/>
     </row>
   </sheetData>
@@ -2315,10 +2735,10 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2:D11"/>
     </sheetView>
   </sheetViews>
@@ -2489,11 +2909,11 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:F21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F1" sqref="A1:F1"/>
+      <selection activeCell="A2" sqref="A2:F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
